--- a/resources/data/DataBase_single.xlsx
+++ b/resources/data/DataBase_single.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="842">
   <si>
     <t>物品ID</t>
   </si>
@@ -38,7 +38,10 @@
     <t>分类</t>
   </si>
   <si>
-    <t>位置</t>
+    <t>物品位置</t>
+  </si>
+  <si>
+    <t>盒子位置</t>
   </si>
   <si>
     <t>圆石</t>
@@ -3724,15 +3727,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C839"/>
+  <dimension ref="A1:D839"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3742,10 +3745,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -3753,7 +3759,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -3761,7 +3767,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -3769,7 +3775,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -3777,7 +3783,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -3785,7 +3791,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -3793,7 +3799,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -3801,7 +3807,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -3809,7 +3815,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -3817,7 +3823,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -3825,7 +3831,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -3833,7 +3839,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -3841,7 +3847,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -3849,7 +3855,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -3857,7 +3863,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -3865,7 +3871,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -3873,7 +3879,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -3881,7 +3887,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -3889,7 +3895,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -3897,7 +3903,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -3905,7 +3911,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -3913,7 +3919,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -3921,7 +3927,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
@@ -3929,7 +3935,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -3937,7 +3943,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
         <v>1</v>
@@ -3945,7 +3951,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2">
         <v>1</v>
@@ -3953,7 +3959,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
@@ -3961,7 +3967,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
@@ -3969,7 +3975,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
         <v>2</v>
@@ -3977,7 +3983,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2">
         <v>2</v>
@@ -3985,7 +3991,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
         <v>2</v>
@@ -3993,7 +3999,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
@@ -4001,7 +4007,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
@@ -4009,7 +4015,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
@@ -4017,7 +4023,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
@@ -4025,7 +4031,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2">
         <v>2</v>
@@ -4033,7 +4039,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
         <v>2</v>
@@ -4041,7 +4047,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -4049,7 +4055,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2">
         <v>2</v>
@@ -4057,7 +4063,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2">
         <v>2</v>
@@ -4065,7 +4071,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
@@ -4073,7 +4079,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2">
         <v>2</v>
@@ -4081,7 +4087,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2">
         <v>2</v>
@@ -4089,7 +4095,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
@@ -4097,7 +4103,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2">
         <v>2</v>
@@ -4105,7 +4111,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2">
         <v>2</v>
@@ -4113,7 +4119,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2">
         <v>2</v>
@@ -4121,7 +4127,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2">
         <v>2</v>
@@ -4129,7 +4135,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2">
         <v>2</v>
@@ -4137,7 +4143,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2">
         <v>2</v>
@@ -4145,7 +4151,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
         <v>3</v>
@@ -4153,7 +4159,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2">
         <v>3</v>
@@ -4161,7 +4167,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2">
         <v>3</v>
@@ -4169,7 +4175,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2">
         <v>3</v>
@@ -4177,7 +4183,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2">
         <v>3</v>
@@ -4185,7 +4191,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57" s="2">
         <v>3</v>
@@ -4193,7 +4199,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58" s="2">
         <v>3</v>
@@ -4201,7 +4207,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59" s="2">
         <v>3</v>
@@ -4209,7 +4215,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B60" s="2">
         <v>3</v>
@@ -4217,7 +4223,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B61" s="2">
         <v>3</v>
@@ -4225,7 +4231,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2">
         <v>3</v>
@@ -4233,7 +4239,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" s="2">
         <v>3</v>
@@ -4241,7 +4247,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" s="2">
         <v>3</v>
@@ -4249,7 +4255,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65" s="2">
         <v>3</v>
@@ -4257,7 +4263,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66" s="2">
         <v>3</v>
@@ -4265,7 +4271,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2">
         <v>3</v>
@@ -4273,7 +4279,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2">
         <v>3</v>
@@ -4281,7 +4287,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" s="2">
         <v>3</v>
@@ -4289,7 +4295,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" s="2">
         <v>3</v>
@@ -4297,7 +4303,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B71" s="2">
         <v>3</v>
@@ -4305,7 +4311,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2">
         <v>3</v>
@@ -4313,7 +4319,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" s="2">
         <v>3</v>
@@ -4321,7 +4327,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2">
         <v>3</v>
@@ -4329,7 +4335,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2">
         <v>3</v>
@@ -4337,7 +4343,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2">
         <v>4</v>
@@ -4345,7 +4351,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2">
         <v>4</v>
@@ -4353,7 +4359,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B78" s="2">
         <v>4</v>
@@ -4361,7 +4367,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2">
         <v>4</v>
@@ -4369,7 +4375,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" s="2">
         <v>4</v>
@@ -4377,7 +4383,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B81" s="2">
         <v>4</v>
@@ -4385,7 +4391,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2">
         <v>4</v>
@@ -4393,7 +4399,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2">
         <v>4</v>
@@ -4401,7 +4407,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2">
         <v>4</v>
@@ -4409,7 +4415,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2">
         <v>4</v>
@@ -4417,7 +4423,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2">
         <v>4</v>
@@ -4425,7 +4431,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2">
         <v>4</v>
@@ -4433,7 +4439,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2">
         <v>4</v>
@@ -4441,7 +4447,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2">
         <v>4</v>
@@ -4449,7 +4455,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2">
         <v>4</v>
@@ -4457,7 +4463,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2">
         <v>4</v>
@@ -4465,7 +4471,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2">
         <v>4</v>
@@ -4473,7 +4479,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" s="2">
         <v>4</v>
@@ -4481,7 +4487,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2">
         <v>4</v>
@@ -4489,7 +4495,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2">
         <v>4</v>
@@ -4497,7 +4503,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2">
         <v>4</v>
@@ -4505,7 +4511,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2">
         <v>4</v>
@@ -4513,7 +4519,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2">
         <v>4</v>
@@ -4521,7 +4527,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2">
         <v>4</v>
@@ -4529,7 +4535,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2">
         <v>4</v>
@@ -4537,7 +4543,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2">
         <v>4</v>
@@ -4545,7 +4551,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2">
         <v>4</v>
@@ -4553,7 +4559,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2">
         <v>4</v>
@@ -4561,7 +4567,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2">
         <v>4</v>
@@ -4569,7 +4575,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2">
         <v>4</v>
@@ -4577,7 +4583,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2">
         <v>4</v>
@@ -4585,7 +4591,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2">
         <v>4</v>
@@ -4593,7 +4599,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2">
         <v>4</v>
@@ -4601,7 +4607,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2">
         <v>4</v>
@@ -4609,7 +4615,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2">
         <v>4</v>
@@ -4617,7 +4623,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2">
         <v>4</v>
@@ -4625,7 +4631,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2">
         <v>4</v>
@@ -4633,7 +4639,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2">
         <v>4</v>
@@ -4641,7 +4647,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2">
         <v>4</v>
@@ -4649,7 +4655,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2">
         <v>4</v>
@@ -4657,7 +4663,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2">
         <v>5</v>
@@ -4665,7 +4671,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2">
         <v>5</v>
@@ -4673,7 +4679,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2">
         <v>5</v>
@@ -4681,7 +4687,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119" s="2">
         <v>5</v>
@@ -4689,7 +4695,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2">
         <v>5</v>
@@ -4697,7 +4703,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2">
         <v>5</v>
@@ -4705,7 +4711,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2">
         <v>5</v>
@@ -4713,7 +4719,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B123" s="2">
         <v>5</v>
@@ -4721,7 +4727,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B124" s="2">
         <v>5</v>
@@ -4729,7 +4735,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B125" s="2">
         <v>5</v>
@@ -4737,7 +4743,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B126" s="2">
         <v>5</v>
@@ -4745,7 +4751,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B127" s="2">
         <v>5</v>
@@ -4753,7 +4759,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B128" s="2">
         <v>5</v>
@@ -4761,7 +4767,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2">
         <v>5</v>
@@ -4769,7 +4775,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2">
         <v>5</v>
@@ -4777,7 +4783,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2">
         <v>5</v>
@@ -4785,7 +4791,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B132" s="2">
         <v>5</v>
@@ -4793,7 +4799,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2">
         <v>5</v>
@@ -4801,7 +4807,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B134" s="2">
         <v>5</v>
@@ -4809,7 +4815,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2">
         <v>5</v>
@@ -4817,7 +4823,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B136" s="2">
         <v>5</v>
@@ -4825,7 +4831,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B137" s="2">
         <v>5</v>
@@ -4833,7 +4839,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B138" s="2">
         <v>5</v>
@@ -4841,7 +4847,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B139" s="2">
         <v>5</v>
@@ -4849,7 +4855,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B140" s="2">
         <v>5</v>
@@ -4857,7 +4863,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B141" s="2">
         <v>5</v>
@@ -4865,7 +4871,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B142" s="2">
         <v>5</v>
@@ -4873,7 +4879,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2">
         <v>5</v>
@@ -4881,7 +4887,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2">
         <v>5</v>
@@ -4889,7 +4895,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2">
         <v>5</v>
@@ -4897,7 +4903,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B146" s="2">
         <v>5</v>
@@ -4905,7 +4911,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B147" s="2">
         <v>5</v>
@@ -4913,7 +4919,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B148" s="2">
         <v>5</v>
@@ -4921,7 +4927,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B149" s="2">
         <v>5</v>
@@ -4929,7 +4935,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B150" s="2">
         <v>5</v>
@@ -4937,7 +4943,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B151" s="2">
         <v>5</v>
@@ -4945,7 +4951,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B152" s="2">
         <v>5</v>
@@ -4953,7 +4959,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B153" s="2">
         <v>5</v>
@@ -4961,7 +4967,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B154" s="2">
         <v>6</v>
@@ -4969,7 +4975,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B155" s="2">
         <v>6</v>
@@ -4977,7 +4983,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B156" s="2">
         <v>6</v>
@@ -4985,7 +4991,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B157" s="2">
         <v>6</v>
@@ -4993,7 +4999,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B158" s="2">
         <v>6</v>
@@ -5001,7 +5007,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B159" s="2">
         <v>6</v>
@@ -5009,7 +5015,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B160" s="2">
         <v>6</v>
@@ -5017,7 +5023,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B161" s="2">
         <v>6</v>
@@ -5025,7 +5031,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B162" s="2">
         <v>6</v>
@@ -5033,7 +5039,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B163" s="2">
         <v>6</v>
@@ -5041,7 +5047,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B164" s="2">
         <v>6</v>
@@ -5049,7 +5055,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B165" s="2">
         <v>6</v>
@@ -5057,7 +5063,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B166" s="2">
         <v>6</v>
@@ -5065,7 +5071,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B167" s="2">
         <v>6</v>
@@ -5073,7 +5079,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B168" s="2">
         <v>6</v>
@@ -5081,7 +5087,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B169" s="2">
         <v>6</v>
@@ -5089,7 +5095,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B170" s="2">
         <v>6</v>
@@ -5097,7 +5103,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B171" s="2">
         <v>6</v>
@@ -5105,7 +5111,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B172" s="2">
         <v>6</v>
@@ -5113,7 +5119,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B173" s="2">
         <v>6</v>
@@ -5121,7 +5127,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B174" s="2">
         <v>7</v>
@@ -5129,7 +5135,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B175" s="2">
         <v>7</v>
@@ -5137,7 +5143,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B176" s="2">
         <v>7</v>
@@ -5145,7 +5151,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B177" s="2">
         <v>7</v>
@@ -5153,7 +5159,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B178" s="2">
         <v>7</v>
@@ -5161,7 +5167,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B179" s="2">
         <v>7</v>
@@ -5169,7 +5175,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B180" s="2">
         <v>7</v>
@@ -5177,7 +5183,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B181" s="2">
         <v>7</v>
@@ -5185,7 +5191,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B182" s="2">
         <v>7</v>
@@ -5193,7 +5199,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B183" s="2">
         <v>7</v>
@@ -5201,7 +5207,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B184" s="2">
         <v>7</v>
@@ -5209,7 +5215,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B185" s="2">
         <v>7</v>
@@ -5217,7 +5223,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B186" s="2">
         <v>7</v>
@@ -5225,7 +5231,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B187" s="2">
         <v>7</v>
@@ -5233,7 +5239,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B188" s="2">
         <v>7</v>
@@ -5241,7 +5247,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B189" s="2">
         <v>7</v>
@@ -5249,7 +5255,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B190" s="2">
         <v>7</v>
@@ -5257,7 +5263,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B191" s="2">
         <v>7</v>
@@ -5265,7 +5271,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B192" s="2">
         <v>7</v>
@@ -5273,7 +5279,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B193" s="2">
         <v>7</v>
@@ -5281,7 +5287,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B194" s="2">
         <v>7</v>
@@ -5289,7 +5295,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B195" s="2">
         <v>7</v>
@@ -5297,7 +5303,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B196" s="2">
         <v>7</v>
@@ -5305,7 +5311,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B197" s="2">
         <v>7</v>
@@ -5313,7 +5319,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B198" s="2">
         <v>7</v>
@@ -5321,7 +5327,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B199" s="2">
         <v>7</v>
@@ -5329,7 +5335,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B200" s="2">
         <v>7</v>
@@ -5337,7 +5343,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B201" s="2">
         <v>7</v>
@@ -5345,7 +5351,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B202" s="2">
         <v>7</v>
@@ -5353,7 +5359,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B203" s="2">
         <v>7</v>
@@ -5361,7 +5367,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B204" s="2">
         <v>8</v>
@@ -5369,7 +5375,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B205" s="2">
         <v>8</v>
@@ -5377,7 +5383,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B206" s="2">
         <v>8</v>
@@ -5385,7 +5391,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B207" s="2">
         <v>8</v>
@@ -5393,7 +5399,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B208" s="2">
         <v>8</v>
@@ -5401,7 +5407,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B209" s="2">
         <v>8</v>
@@ -5409,7 +5415,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B210" s="2">
         <v>8</v>
@@ -5417,7 +5423,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B211" s="2">
         <v>8</v>
@@ -5425,7 +5431,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B212" s="2">
         <v>8</v>
@@ -5433,7 +5439,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B213" s="2">
         <v>8</v>
@@ -5441,7 +5447,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B214" s="2">
         <v>8</v>
@@ -5449,7 +5455,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B215" s="2">
         <v>8</v>
@@ -5457,7 +5463,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B216" s="2">
         <v>8</v>
@@ -5465,7 +5471,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B217" s="2">
         <v>8</v>
@@ -5473,7 +5479,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B218" s="2">
         <v>8</v>
@@ -5481,7 +5487,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B219" s="2">
         <v>8</v>
@@ -5489,7 +5495,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B220" s="2">
         <v>8</v>
@@ -5497,7 +5503,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B221" s="2">
         <v>8</v>
@@ -5505,7 +5511,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B222" s="2">
         <v>8</v>
@@ -5513,7 +5519,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B223" s="2">
         <v>8</v>
@@ -5521,7 +5527,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B224" s="2">
         <v>8</v>
@@ -5529,7 +5535,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B225" s="2">
         <v>8</v>
@@ -5537,7 +5543,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B226" s="2">
         <v>8</v>
@@ -5545,7 +5551,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B227" s="2">
         <v>8</v>
@@ -5553,7 +5559,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B228" s="2">
         <v>8</v>
@@ -5561,7 +5567,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B229" s="2">
         <v>8</v>
@@ -5569,7 +5575,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B230" s="2">
         <v>8</v>
@@ -5577,7 +5583,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B231" s="2">
         <v>8</v>
@@ -5585,7 +5591,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B232" s="2">
         <v>8</v>
@@ -5593,7 +5599,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B233" s="2">
         <v>8</v>
@@ -5601,7 +5607,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B234" s="2">
         <v>9</v>
@@ -5609,7 +5615,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B235" s="2">
         <v>9</v>
@@ -5617,7 +5623,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B236" s="2">
         <v>9</v>
@@ -5625,7 +5631,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B237" s="2">
         <v>9</v>
@@ -5633,7 +5639,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B238" s="2">
         <v>9</v>
@@ -5641,7 +5647,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B239" s="2">
         <v>9</v>
@@ -5649,7 +5655,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B240" s="2">
         <v>9</v>
@@ -5657,7 +5663,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B241" s="2">
         <v>9</v>
@@ -5665,7 +5671,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B242" s="2">
         <v>9</v>
@@ -5673,7 +5679,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B243" s="2">
         <v>9</v>
@@ -5681,7 +5687,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B244" s="2">
         <v>9</v>
@@ -5689,7 +5695,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B245" s="2">
         <v>9</v>
@@ -5697,7 +5703,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B246" s="2">
         <v>9</v>
@@ -5705,7 +5711,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B247" s="2">
         <v>9</v>
@@ -5713,7 +5719,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B248" s="2">
         <v>9</v>
@@ -5721,7 +5727,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B249" s="2">
         <v>9</v>
@@ -5729,7 +5735,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B250" s="2">
         <v>9</v>
@@ -5737,7 +5743,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B251" s="2">
         <v>9</v>
@@ -5745,7 +5751,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B252" s="2">
         <v>9</v>
@@ -5753,7 +5759,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B253" s="2">
         <v>9</v>
@@ -5761,7 +5767,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B254" s="2">
         <v>9</v>
@@ -5769,7 +5775,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B255" s="2">
         <v>9</v>
@@ -5777,7 +5783,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B256" s="2">
         <v>9</v>
@@ -5785,7 +5791,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B257" s="2">
         <v>9</v>
@@ -5793,7 +5799,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B258" s="2">
         <v>9</v>
@@ -5801,7 +5807,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B259" s="2">
         <v>9</v>
@@ -5809,7 +5815,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B260" s="2">
         <v>9</v>
@@ -5817,7 +5823,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B261" s="2">
         <v>10</v>
@@ -5825,7 +5831,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B262" s="2">
         <v>10</v>
@@ -5833,7 +5839,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B263" s="2">
         <v>10</v>
@@ -5841,7 +5847,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B264" s="2">
         <v>10</v>
@@ -5849,7 +5855,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B265" s="2">
         <v>10</v>
@@ -5857,7 +5863,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B266" s="2">
         <v>10</v>
@@ -5865,7 +5871,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B267" s="2">
         <v>10</v>
@@ -5873,7 +5879,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B268" s="2">
         <v>10</v>
@@ -5881,7 +5887,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B269" s="2">
         <v>10</v>
@@ -5889,7 +5895,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B270" s="2">
         <v>10</v>
@@ -5897,7 +5903,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B271" s="2">
         <v>10</v>
@@ -5905,7 +5911,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B272" s="2">
         <v>10</v>
@@ -5913,7 +5919,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B273" s="2">
         <v>10</v>
@@ -5921,7 +5927,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B274" s="2">
         <v>10</v>
@@ -5929,7 +5935,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B275" s="2">
         <v>10</v>
@@ -5937,7 +5943,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B276" s="2">
         <v>10</v>
@@ -5945,7 +5951,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B277" s="2">
         <v>10</v>
@@ -5953,7 +5959,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B278" s="2">
         <v>10</v>
@@ -5961,7 +5967,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B279" s="2">
         <v>10</v>
@@ -5969,7 +5975,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B280" s="2">
         <v>10</v>
@@ -5977,7 +5983,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B281" s="2">
         <v>10</v>
@@ -5985,7 +5991,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B282" s="2">
         <v>10</v>
@@ -5993,7 +5999,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B283" s="2">
         <v>10</v>
@@ -6001,7 +6007,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B284" s="2">
         <v>10</v>
@@ -6009,7 +6015,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B285" s="2">
         <v>10</v>
@@ -6017,7 +6023,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B286" s="2">
         <v>10</v>
@@ -6025,7 +6031,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B287" s="2">
         <v>10</v>
@@ -6033,7 +6039,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B288" s="2">
         <v>10</v>
@@ -6041,7 +6047,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B289" s="2">
         <v>10</v>
@@ -6049,7 +6055,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B290" s="2">
         <v>10</v>
@@ -6057,7 +6063,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B291" s="2">
         <v>10</v>
@@ -6065,7 +6071,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B292" s="2">
         <v>10</v>
@@ -6073,7 +6079,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B293" s="2">
         <v>10</v>
@@ -6081,7 +6087,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B294" s="2">
         <v>10</v>
@@ -6089,7 +6095,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B295" s="2">
         <v>10</v>
@@ -6097,7 +6103,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B296" s="2">
         <v>10</v>
@@ -6105,7 +6111,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B297" s="2">
         <v>10</v>
@@ -6113,7 +6119,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B298" s="2">
         <v>10</v>
@@ -6121,7 +6127,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B299" s="2">
         <v>10</v>
@@ -6129,7 +6135,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B300" s="2">
         <v>10</v>
@@ -6137,7 +6143,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B301" s="2">
         <v>10</v>
@@ -6145,7 +6151,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B302" s="2">
         <v>10</v>
@@ -6153,7 +6159,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B303" s="2">
         <v>10</v>
@@ -6161,7 +6167,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B304" s="2">
         <v>10</v>
@@ -6169,7 +6175,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B305" s="2">
         <v>10</v>
@@ -6177,7 +6183,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B306" s="2">
         <v>10</v>
@@ -6185,7 +6191,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B307" s="2">
         <v>10</v>
@@ -6193,7 +6199,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B308" s="2">
         <v>10</v>
@@ -6201,7 +6207,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B309" s="2">
         <v>10</v>
@@ -6209,7 +6215,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B310" s="2">
         <v>10</v>
@@ -6217,7 +6223,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B311" s="2">
         <v>10</v>
@@ -6225,7 +6231,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B312" s="2">
         <v>10</v>
@@ -6233,7 +6239,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B313" s="2">
         <v>10</v>
@@ -6241,7 +6247,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B314" s="2">
         <v>10</v>
@@ -6249,7 +6255,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B315" s="2">
         <v>10</v>
@@ -6257,7 +6263,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B316" s="2">
         <v>10</v>
@@ -6265,7 +6271,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B317" s="2">
         <v>10</v>
@@ -6273,7 +6279,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B318" s="2">
         <v>10</v>
@@ -6281,7 +6287,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B319" s="2">
         <v>10</v>
@@ -6289,7 +6295,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B320" s="2">
         <v>10</v>
@@ -6297,7 +6303,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B321" s="2">
         <v>10</v>
@@ -6305,7 +6311,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B322" s="2">
         <v>10</v>
@@ -6313,7 +6319,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B323" s="2">
         <v>10</v>
@@ -6321,7 +6327,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B324" s="2">
         <v>10</v>
@@ -6329,7 +6335,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B325" s="2">
         <v>10</v>
@@ -6337,7 +6343,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B326" s="2">
         <v>10</v>
@@ -6345,7 +6351,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B327" s="2">
         <v>10</v>
@@ -6353,7 +6359,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B328" s="2">
         <v>10</v>
@@ -6361,7 +6367,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B329" s="2">
         <v>10</v>
@@ -6369,7 +6375,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B330" s="2">
         <v>10</v>
@@ -6377,7 +6383,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B331" s="2">
         <v>10</v>
@@ -6385,7 +6391,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B332" s="2">
         <v>10</v>
@@ -6393,7 +6399,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B333" s="2">
         <v>10</v>
@@ -6401,7 +6407,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B334" s="2">
         <v>10</v>
@@ -6409,7 +6415,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B335" s="2">
         <v>10</v>
@@ -6417,7 +6423,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B336" s="2">
         <v>10</v>
@@ -6425,7 +6431,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B337" s="2">
         <v>10</v>
@@ -6433,7 +6439,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B338" s="2">
         <v>10</v>
@@ -6441,7 +6447,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B339" s="2">
         <v>10</v>
@@ -6449,7 +6455,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B340" s="2">
         <v>10</v>
@@ -6457,7 +6463,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B341" s="2">
         <v>10</v>
@@ -6465,7 +6471,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B342" s="2">
         <v>10</v>
@@ -6473,7 +6479,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B343" s="2">
         <v>10</v>
@@ -6481,7 +6487,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B344" s="2">
         <v>10</v>
@@ -6489,7 +6495,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B345" s="2">
         <v>10</v>
@@ -6497,7 +6503,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B346" s="2">
         <v>10</v>
@@ -6505,7 +6511,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B347" s="2">
         <v>10</v>
@@ -6513,7 +6519,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B348" s="2">
         <v>10</v>
@@ -6521,7 +6527,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B349" s="2">
         <v>10</v>
@@ -6529,7 +6535,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B350" s="2">
         <v>10</v>
@@ -6537,7 +6543,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B351" s="2">
         <v>10</v>
@@ -6545,7 +6551,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B352" s="2">
         <v>10</v>
@@ -6553,7 +6559,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B353" s="2">
         <v>10</v>
@@ -6561,7 +6567,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B354" s="2">
         <v>10</v>
@@ -6569,7 +6575,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B355" s="2">
         <v>10</v>
@@ -6577,7 +6583,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B356" s="2">
         <v>10</v>
@@ -6585,7 +6591,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B357" s="2">
         <v>10</v>
@@ -6593,7 +6599,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B358" s="2">
         <v>10</v>
@@ -6601,7 +6607,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B359" s="2">
         <v>10</v>
@@ -6609,7 +6615,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B360" s="2">
         <v>10</v>
@@ -6617,7 +6623,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B361" s="2">
         <v>10</v>
@@ -6625,7 +6631,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B362" s="2">
         <v>10</v>
@@ -6633,7 +6639,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B363" s="2">
         <v>10</v>
@@ -6641,7 +6647,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B364" s="2">
         <v>10</v>
@@ -6649,7 +6655,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B365" s="2">
         <v>10</v>
@@ -6657,7 +6663,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B366" s="2">
         <v>10</v>
@@ -6665,7 +6671,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B367" s="2">
         <v>10</v>
@@ -6673,7 +6679,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B368" s="2">
         <v>10</v>
@@ -6681,7 +6687,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B369" s="2">
         <v>10</v>
@@ -6689,7 +6695,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B370" s="2">
         <v>10</v>
@@ -6697,7 +6703,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B371" s="2">
         <v>10</v>
@@ -6705,7 +6711,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B372" s="2">
         <v>10</v>
@@ -6713,7 +6719,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B373" s="2">
         <v>10</v>
@@ -6721,7 +6727,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B374" s="2">
         <v>10</v>
@@ -6729,7 +6735,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B375" s="2">
         <v>10</v>
@@ -6737,7 +6743,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B376" s="2">
         <v>10</v>
@@ -6745,7 +6751,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B377" s="2">
         <v>10</v>
@@ -6753,7 +6759,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B378" s="2">
         <v>10</v>
@@ -6761,7 +6767,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B379" s="2">
         <v>10</v>
@@ -6769,7 +6775,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B380" s="2">
         <v>10</v>
@@ -6777,7 +6783,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B381" s="2">
         <v>10</v>
@@ -6785,7 +6791,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B382" s="2">
         <v>10</v>
@@ -6793,7 +6799,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B383" s="2">
         <v>10</v>
@@ -6801,7 +6807,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B384" s="2">
         <v>10</v>
@@ -6809,7 +6815,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B385" s="2">
         <v>10</v>
@@ -6817,7 +6823,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B386" s="2">
         <v>10</v>
@@ -6825,7 +6831,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B387" s="2">
         <v>10</v>
@@ -6833,7 +6839,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B388" s="2">
         <v>10</v>
@@ -6841,7 +6847,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B389" s="2">
         <v>10</v>
@@ -6849,7 +6855,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B390" s="2">
         <v>11</v>
@@ -6857,7 +6863,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B391" s="2">
         <v>11</v>
@@ -6865,7 +6871,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B392" s="2">
         <v>11</v>
@@ -6873,7 +6879,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B393" s="2">
         <v>11</v>
@@ -6881,7 +6887,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B394" s="2">
         <v>11</v>
@@ -6889,7 +6895,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B395" s="2">
         <v>11</v>
@@ -6897,7 +6903,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B396" s="2">
         <v>11</v>
@@ -6905,7 +6911,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B397" s="2">
         <v>11</v>
@@ -6913,7 +6919,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B398" s="2">
         <v>11</v>
@@ -6921,7 +6927,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B399" s="2">
         <v>11</v>
@@ -6929,7 +6935,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B400" s="2">
         <v>11</v>
@@ -6937,7 +6943,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B401" s="2">
         <v>11</v>
@@ -6945,7 +6951,7 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B402" s="2">
         <v>11</v>
@@ -6953,7 +6959,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B403" s="2">
         <v>11</v>
@@ -6961,7 +6967,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B404" s="2">
         <v>11</v>
@@ -6969,7 +6975,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B405" s="2">
         <v>11</v>
@@ -6977,7 +6983,7 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B406" s="2">
         <v>11</v>
@@ -6985,7 +6991,7 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B407" s="2">
         <v>11</v>
@@ -6993,7 +6999,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B408" s="2">
         <v>11</v>
@@ -7001,7 +7007,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B409" s="2">
         <v>11</v>
@@ -7009,7 +7015,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B410" s="2">
         <v>11</v>
@@ -7017,7 +7023,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B411" s="2">
         <v>11</v>
@@ -7025,7 +7031,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B412" s="2">
         <v>11</v>
@@ -7033,7 +7039,7 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B413" s="2">
         <v>11</v>
@@ -7041,7 +7047,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B414" s="2">
         <v>11</v>
@@ -7049,7 +7055,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B415" s="2">
         <v>11</v>
@@ -7057,7 +7063,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B416" s="2">
         <v>11</v>
@@ -7065,7 +7071,7 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B417" s="2">
         <v>11</v>
@@ -7073,7 +7079,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B418" s="2">
         <v>11</v>
@@ -7081,7 +7087,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B419" s="2">
         <v>11</v>
@@ -7089,7 +7095,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B420" s="2">
         <v>11</v>
@@ -7097,7 +7103,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B421" s="2">
         <v>11</v>
@@ -7105,7 +7111,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B422" s="2">
         <v>11</v>
@@ -7113,7 +7119,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B423" s="2">
         <v>11</v>
@@ -7121,7 +7127,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B424" s="2">
         <v>11</v>
@@ -7129,7 +7135,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B425" s="2">
         <v>11</v>
@@ -7137,7 +7143,7 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B426" s="2">
         <v>11</v>
@@ -7145,7 +7151,7 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B427" s="2">
         <v>11</v>
@@ -7153,7 +7159,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B428" s="2">
         <v>11</v>
@@ -7161,7 +7167,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B429" s="2">
         <v>11</v>
@@ -7169,7 +7175,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B430" s="2">
         <v>11</v>
@@ -7177,7 +7183,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B431" s="2">
         <v>11</v>
@@ -7185,7 +7191,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B432" s="2">
         <v>11</v>
@@ -7193,7 +7199,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B433" s="2">
         <v>11</v>
@@ -7201,7 +7207,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B434" s="2">
         <v>11</v>
@@ -7209,7 +7215,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B435" s="2">
         <v>11</v>
@@ -7217,7 +7223,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B436" s="2">
         <v>11</v>
@@ -7225,7 +7231,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B437" s="2">
         <v>12</v>
@@ -7233,7 +7239,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B438" s="2">
         <v>12</v>
@@ -7241,7 +7247,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B439" s="2">
         <v>12</v>
@@ -7249,7 +7255,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B440" s="2">
         <v>12</v>
@@ -7257,7 +7263,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B441" s="2">
         <v>12</v>
@@ -7265,7 +7271,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B442" s="2">
         <v>12</v>
@@ -7273,7 +7279,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B443" s="2">
         <v>12</v>
@@ -7281,7 +7287,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B444" s="2">
         <v>12</v>
@@ -7289,7 +7295,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B445" s="2">
         <v>12</v>
@@ -7297,7 +7303,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B446" s="2">
         <v>12</v>
@@ -7305,7 +7311,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B447" s="2">
         <v>13</v>
@@ -7313,7 +7319,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B448" s="2">
         <v>13</v>
@@ -7321,7 +7327,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B449" s="2">
         <v>13</v>
@@ -7329,7 +7335,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B450" s="2">
         <v>13</v>
@@ -7337,7 +7343,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B451" s="2">
         <v>13</v>
@@ -7345,7 +7351,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B452" s="2">
         <v>13</v>
@@ -7353,7 +7359,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B453" s="2">
         <v>13</v>
@@ -7361,7 +7367,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B454" s="2">
         <v>13</v>
@@ -7369,7 +7375,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B455" s="2">
         <v>13</v>
@@ -7377,7 +7383,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B456" s="2">
         <v>13</v>
@@ -7385,7 +7391,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B457" s="2">
         <v>13</v>
@@ -7393,7 +7399,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B458" s="2">
         <v>13</v>
@@ -7401,7 +7407,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B459" s="2">
         <v>13</v>
@@ -7409,7 +7415,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B460" s="2">
         <v>14</v>
@@ -7417,7 +7423,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B461" s="2">
         <v>14</v>
@@ -7425,7 +7431,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B462" s="2">
         <v>14</v>
@@ -7433,7 +7439,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B463" s="2">
         <v>14</v>
@@ -7441,7 +7447,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B464" s="2">
         <v>14</v>
@@ -7449,7 +7455,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B465" s="2">
         <v>14</v>
@@ -7457,7 +7463,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B466" s="2">
         <v>14</v>
@@ -7465,7 +7471,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B467" s="2">
         <v>14</v>
@@ -7473,7 +7479,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B468" s="2">
         <v>14</v>
@@ -7481,7 +7487,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B469" s="2">
         <v>14</v>
@@ -7489,7 +7495,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B470" s="2">
         <v>14</v>
@@ -7497,7 +7503,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B471" s="2">
         <v>14</v>
@@ -7505,7 +7511,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B472" s="2">
         <v>14</v>
@@ -7513,7 +7519,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B473" s="2">
         <v>14</v>
@@ -7521,7 +7527,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B474" s="2">
         <v>14</v>
@@ -7529,7 +7535,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B475" s="2">
         <v>14</v>
@@ -7537,7 +7543,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B476" s="2">
         <v>14</v>
@@ -7545,7 +7551,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B477" s="2">
         <v>14</v>
@@ -7553,7 +7559,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B478" s="2">
         <v>14</v>
@@ -7561,7 +7567,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B479" s="2">
         <v>14</v>
@@ -7569,7 +7575,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B480" s="2">
         <v>14</v>
@@ -7577,7 +7583,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B481" s="2">
         <v>14</v>
@@ -7585,7 +7591,7 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B482" s="2">
         <v>14</v>
@@ -7593,7 +7599,7 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B483" s="2">
         <v>14</v>
@@ -7601,7 +7607,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B484" s="2">
         <v>14</v>
@@ -7609,7 +7615,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B485" s="2">
         <v>14</v>
@@ -7617,7 +7623,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B486" s="2">
         <v>14</v>
@@ -7625,7 +7631,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B487" s="2">
         <v>14</v>
@@ -7633,7 +7639,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B488" s="2">
         <v>14</v>
@@ -7641,7 +7647,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B489" s="2">
         <v>14</v>
@@ -7649,7 +7655,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B490" s="2">
         <v>14</v>
@@ -7657,7 +7663,7 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B491" s="2">
         <v>14</v>
@@ -7665,7 +7671,7 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B492" s="2">
         <v>14</v>
@@ -7673,7 +7679,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B493" s="2">
         <v>14</v>
@@ -7681,7 +7687,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B494" s="2">
         <v>14</v>
@@ -7689,7 +7695,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B495" s="2">
         <v>14</v>
@@ -7697,7 +7703,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B496" s="2">
         <v>14</v>
@@ -7705,7 +7711,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B497" s="2">
         <v>14</v>
@@ -7713,7 +7719,7 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B498" s="2">
         <v>14</v>
@@ -7721,7 +7727,7 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B499" s="2">
         <v>14</v>
@@ -7729,7 +7735,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B500" s="2">
         <v>14</v>
@@ -7737,7 +7743,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B501" s="2">
         <v>14</v>
@@ -7745,7 +7751,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B502" s="2">
         <v>14</v>
@@ -7753,7 +7759,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B503" s="2">
         <v>14</v>
@@ -7761,7 +7767,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B504" s="2">
         <v>14</v>
@@ -7769,7 +7775,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B505" s="2">
         <v>14</v>
@@ -7777,7 +7783,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B506" s="2">
         <v>14</v>
@@ -7785,7 +7791,7 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B507" s="2">
         <v>14</v>
@@ -7793,7 +7799,7 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B508" s="2">
         <v>14</v>
@@ -7801,7 +7807,7 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B509" s="2">
         <v>14</v>
@@ -7809,7 +7815,7 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B510" s="2">
         <v>14</v>
@@ -7817,7 +7823,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B511" s="2">
         <v>14</v>
@@ -7825,7 +7831,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B512" s="2">
         <v>14</v>
@@ -7833,7 +7839,7 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B513" s="2">
         <v>14</v>
@@ -7841,7 +7847,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B514" s="2">
         <v>14</v>
@@ -7849,7 +7855,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B515" s="2">
         <v>14</v>
@@ -7857,7 +7863,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B516" s="2">
         <v>14</v>
@@ -7865,7 +7871,7 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B517" s="2">
         <v>14</v>
@@ -7873,7 +7879,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B518" s="2">
         <v>14</v>
@@ -7881,7 +7887,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B519" s="2">
         <v>14</v>
@@ -7889,7 +7895,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B520" s="2">
         <v>14</v>
@@ -7897,7 +7903,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B521" s="2">
         <v>14</v>
@@ -7905,7 +7911,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B522" s="2">
         <v>14</v>
@@ -7913,7 +7919,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B523" s="2">
         <v>14</v>
@@ -7921,7 +7927,7 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B524" s="2">
         <v>14</v>
@@ -7929,7 +7935,7 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B525" s="2">
         <v>14</v>
@@ -7937,7 +7943,7 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B526" s="2">
         <v>14</v>
@@ -7945,7 +7951,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B527" s="2">
         <v>14</v>
@@ -7953,7 +7959,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B528" s="2">
         <v>14</v>
@@ -7961,7 +7967,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B529" s="2">
         <v>14</v>
@@ -7969,7 +7975,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B530" s="2">
         <v>14</v>
@@ -7977,7 +7983,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B531" s="2">
         <v>14</v>
@@ -7985,7 +7991,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B532" s="2">
         <v>14</v>
@@ -7993,7 +7999,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B533" s="2">
         <v>14</v>
@@ -8001,7 +8007,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B534" s="2">
         <v>14</v>
@@ -8009,7 +8015,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B535" s="2">
         <v>14</v>
@@ -8017,7 +8023,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B536" s="2">
         <v>14</v>
@@ -8025,7 +8031,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B537" s="2">
         <v>14</v>
@@ -8033,7 +8039,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B538" s="2">
         <v>14</v>
@@ -8041,7 +8047,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B539" s="2">
         <v>14</v>
@@ -8049,7 +8055,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B540" s="2">
         <v>14</v>
@@ -8057,7 +8063,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B541" s="2">
         <v>14</v>
@@ -8065,7 +8071,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B542" s="2">
         <v>14</v>
@@ -8073,7 +8079,7 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B543" s="2">
         <v>14</v>
@@ -8081,7 +8087,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B544" s="2">
         <v>14</v>
@@ -8089,7 +8095,7 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B545" s="2">
         <v>14</v>
@@ -8097,7 +8103,7 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B546" s="2">
         <v>14</v>
@@ -8105,7 +8111,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B547" s="2">
         <v>14</v>
@@ -8113,7 +8119,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B548" s="2">
         <v>14</v>
@@ -8121,7 +8127,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B549" s="2">
         <v>14</v>
@@ -8129,7 +8135,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B550" s="2">
         <v>14</v>
@@ -8137,7 +8143,7 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B551" s="2">
         <v>15</v>
@@ -8145,7 +8151,7 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B552" s="2">
         <v>15</v>
@@ -8153,7 +8159,7 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B553" s="2">
         <v>15</v>
@@ -8161,7 +8167,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B554" s="2">
         <v>15</v>
@@ -8169,7 +8175,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B555" s="2">
         <v>15</v>
@@ -8177,7 +8183,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B556" s="2">
         <v>15</v>
@@ -8185,7 +8191,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B557" s="2">
         <v>15</v>
@@ -8193,7 +8199,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B558" s="2">
         <v>15</v>
@@ -8201,7 +8207,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B559" s="2">
         <v>15</v>
@@ -8209,7 +8215,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B560" s="2">
         <v>15</v>
@@ -8217,7 +8223,7 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B561" s="2">
         <v>15</v>
@@ -8225,7 +8231,7 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B562" s="2">
         <v>15</v>
@@ -8233,7 +8239,7 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B563" s="2">
         <v>15</v>
@@ -8241,7 +8247,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B564" s="2">
         <v>15</v>
@@ -8249,7 +8255,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B565" s="2">
         <v>15</v>
@@ -8257,7 +8263,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B566" s="2">
         <v>15</v>
@@ -8265,7 +8271,7 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B567" s="2">
         <v>15</v>
@@ -8273,7 +8279,7 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B568" s="2">
         <v>15</v>
@@ -8281,7 +8287,7 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B569" s="2">
         <v>15</v>
@@ -8289,7 +8295,7 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B570" s="2">
         <v>15</v>
@@ -8297,7 +8303,7 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B571" s="2">
         <v>15</v>
@@ -8305,7 +8311,7 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B572" s="2">
         <v>15</v>
@@ -8313,7 +8319,7 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B573" s="2">
         <v>15</v>
@@ -8321,7 +8327,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B574" s="2">
         <v>15</v>
@@ -8329,7 +8335,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B575" s="2">
         <v>15</v>
@@ -8337,7 +8343,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B576" s="2">
         <v>15</v>
@@ -8345,7 +8351,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B577" s="2">
         <v>15</v>
@@ -8353,7 +8359,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B578" s="2">
         <v>15</v>
@@ -8361,7 +8367,7 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B579" s="2">
         <v>15</v>
@@ -8369,7 +8375,7 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B580" s="2">
         <v>15</v>
@@ -8377,7 +8383,7 @@
     </row>
     <row r="581" spans="1:2">
       <c r="A581" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B581" s="2">
         <v>15</v>
@@ -8385,7 +8391,7 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B582" s="2">
         <v>15</v>
@@ -8393,7 +8399,7 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B583" s="2">
         <v>15</v>
@@ -8401,7 +8407,7 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B584" s="2">
         <v>16</v>
@@ -8409,7 +8415,7 @@
     </row>
     <row r="585" spans="1:2">
       <c r="A585" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B585" s="2">
         <v>16</v>
@@ -8417,7 +8423,7 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B586" s="2">
         <v>16</v>
@@ -8425,7 +8431,7 @@
     </row>
     <row r="587" spans="1:2">
       <c r="A587" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B587" s="2">
         <v>16</v>
@@ -8433,7 +8439,7 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B588" s="2">
         <v>16</v>
@@ -8441,7 +8447,7 @@
     </row>
     <row r="589" spans="1:2">
       <c r="A589" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B589" s="2">
         <v>16</v>
@@ -8449,7 +8455,7 @@
     </row>
     <row r="590" spans="1:2">
       <c r="A590" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B590" s="2">
         <v>16</v>
@@ -8457,7 +8463,7 @@
     </row>
     <row r="591" spans="1:2">
       <c r="A591" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B591" s="2">
         <v>16</v>
@@ -8465,7 +8471,7 @@
     </row>
     <row r="592" spans="1:2">
       <c r="A592" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B592" s="2">
         <v>16</v>
@@ -8473,7 +8479,7 @@
     </row>
     <row r="593" spans="1:2">
       <c r="A593" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B593" s="2">
         <v>16</v>
@@ -8481,7 +8487,7 @@
     </row>
     <row r="594" spans="1:2">
       <c r="A594" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B594" s="2">
         <v>16</v>
@@ -8489,7 +8495,7 @@
     </row>
     <row r="595" spans="1:2">
       <c r="A595" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B595" s="2">
         <v>16</v>
@@ -8497,7 +8503,7 @@
     </row>
     <row r="596" spans="1:2">
       <c r="A596" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B596" s="2">
         <v>16</v>
@@ -8505,7 +8511,7 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B597" s="2">
         <v>16</v>
@@ -8513,7 +8519,7 @@
     </row>
     <row r="598" spans="1:2">
       <c r="A598" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B598" s="2">
         <v>16</v>
@@ -8521,7 +8527,7 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B599" s="2">
         <v>16</v>
@@ -8529,7 +8535,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B600" s="2">
         <v>16</v>
@@ -8537,7 +8543,7 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B601" s="2">
         <v>16</v>
@@ -8545,7 +8551,7 @@
     </row>
     <row r="602" spans="1:2">
       <c r="A602" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B602" s="2">
         <v>16</v>
@@ -8553,7 +8559,7 @@
     </row>
     <row r="603" spans="1:2">
       <c r="A603" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B603" s="2">
         <v>16</v>
@@ -8561,7 +8567,7 @@
     </row>
     <row r="604" spans="1:2">
       <c r="A604" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B604" s="2">
         <v>16</v>
@@ -8569,7 +8575,7 @@
     </row>
     <row r="605" spans="1:2">
       <c r="A605" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B605" s="2">
         <v>16</v>
@@ -8577,7 +8583,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B606" s="2">
         <v>16</v>
@@ -8585,7 +8591,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B607" s="2">
         <v>16</v>
@@ -8593,7 +8599,7 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B608" s="2">
         <v>16</v>
@@ -8601,7 +8607,7 @@
     </row>
     <row r="609" spans="1:2">
       <c r="A609" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B609" s="2">
         <v>16</v>
@@ -8609,7 +8615,7 @@
     </row>
     <row r="610" spans="1:2">
       <c r="A610" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B610" s="2">
         <v>16</v>
@@ -8617,7 +8623,7 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B611" s="2">
         <v>16</v>
@@ -8625,7 +8631,7 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B612" s="2">
         <v>16</v>
@@ -8633,7 +8639,7 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B613" s="2">
         <v>16</v>
@@ -8641,7 +8647,7 @@
     </row>
     <row r="614" spans="1:2">
       <c r="A614" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B614" s="2">
         <v>16</v>
@@ -8649,7 +8655,7 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B615" s="2">
         <v>16</v>
@@ -8657,7 +8663,7 @@
     </row>
     <row r="616" spans="1:2">
       <c r="A616" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B616" s="2">
         <v>16</v>
@@ -8665,7 +8671,7 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B617" s="2">
         <v>16</v>
@@ -8673,7 +8679,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B618" s="2">
         <v>16</v>
@@ -8681,7 +8687,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B619" s="2">
         <v>16</v>
@@ -8689,7 +8695,7 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B620" s="2">
         <v>16</v>
@@ -8697,7 +8703,7 @@
     </row>
     <row r="621" spans="1:2">
       <c r="A621" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B621" s="2">
         <v>16</v>
@@ -8705,7 +8711,7 @@
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B622" s="2">
         <v>16</v>
@@ -8713,7 +8719,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B623" s="2">
         <v>16</v>
@@ -8721,7 +8727,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B624" s="2">
         <v>16</v>
@@ -8729,7 +8735,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B625" s="2">
         <v>16</v>
@@ -8737,7 +8743,7 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B626" s="2">
         <v>16</v>
@@ -8745,7 +8751,7 @@
     </row>
     <row r="627" spans="1:2">
       <c r="A627" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B627" s="2">
         <v>16</v>
@@ -8753,7 +8759,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B628" s="2">
         <v>16</v>
@@ -8761,7 +8767,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B629" s="2">
         <v>16</v>
@@ -8769,7 +8775,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B630" s="2">
         <v>16</v>
@@ -8777,7 +8783,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B631" s="2">
         <v>16</v>
@@ -8785,7 +8791,7 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B632" s="2">
         <v>16</v>
@@ -8793,7 +8799,7 @@
     </row>
     <row r="633" spans="1:2">
       <c r="A633" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B633" s="2">
         <v>16</v>
@@ -8801,7 +8807,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B634" s="2">
         <v>16</v>
@@ -8809,7 +8815,7 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B635" s="2">
         <v>16</v>
@@ -8817,7 +8823,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B636" s="2">
         <v>16</v>
@@ -8825,7 +8831,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B637" s="2">
         <v>16</v>
@@ -8833,7 +8839,7 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B638" s="2">
         <v>16</v>
@@ -8841,7 +8847,7 @@
     </row>
     <row r="639" spans="1:2">
       <c r="A639" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B639" s="2">
         <v>16</v>
@@ -8849,7 +8855,7 @@
     </row>
     <row r="640" spans="1:2">
       <c r="A640" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B640" s="2">
         <v>16</v>
@@ -8857,7 +8863,7 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B641" s="2">
         <v>16</v>
@@ -8865,7 +8871,7 @@
     </row>
     <row r="642" spans="1:2">
       <c r="A642" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B642" s="2">
         <v>16</v>
@@ -8873,7 +8879,7 @@
     </row>
     <row r="643" spans="1:2">
       <c r="A643" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B643" s="2">
         <v>16</v>
@@ -8881,7 +8887,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B644" s="2">
         <v>16</v>
@@ -8889,7 +8895,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B645" s="2">
         <v>16</v>
@@ -8897,7 +8903,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B646" s="2">
         <v>16</v>
@@ -8905,7 +8911,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B647" s="2">
         <v>16</v>
@@ -8913,7 +8919,7 @@
     </row>
     <row r="648" spans="1:2">
       <c r="A648" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B648" s="2">
         <v>16</v>
@@ -8921,7 +8927,7 @@
     </row>
     <row r="649" spans="1:2">
       <c r="A649" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B649" s="2">
         <v>16</v>
@@ -8929,7 +8935,7 @@
     </row>
     <row r="650" spans="1:2">
       <c r="A650" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B650" s="2">
         <v>16</v>
@@ -8937,7 +8943,7 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B651" s="2">
         <v>16</v>
@@ -8945,7 +8951,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B652" s="2">
         <v>16</v>
@@ -8953,7 +8959,7 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B653" s="2">
         <v>16</v>
@@ -8961,7 +8967,7 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B654" s="2">
         <v>16</v>
@@ -8969,7 +8975,7 @@
     </row>
     <row r="655" spans="1:2">
       <c r="A655" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B655" s="2">
         <v>16</v>
@@ -8977,7 +8983,7 @@
     </row>
     <row r="656" spans="1:2">
       <c r="A656" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B656" s="2">
         <v>16</v>
@@ -8985,7 +8991,7 @@
     </row>
     <row r="657" spans="1:2">
       <c r="A657" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B657" s="2">
         <v>16</v>
@@ -8993,7 +8999,7 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B658" s="2">
         <v>16</v>
@@ -9001,7 +9007,7 @@
     </row>
     <row r="659" spans="1:2">
       <c r="A659" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B659" s="2">
         <v>16</v>
@@ -9009,7 +9015,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B660" s="2">
         <v>16</v>
@@ -9017,7 +9023,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B661" s="2">
         <v>16</v>
@@ -9025,7 +9031,7 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B662" s="2">
         <v>16</v>
@@ -9033,7 +9039,7 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B663" s="2">
         <v>16</v>
@@ -9041,7 +9047,7 @@
     </row>
     <row r="664" spans="1:2">
       <c r="A664" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B664" s="2">
         <v>16</v>
@@ -9049,7 +9055,7 @@
     </row>
     <row r="665" spans="1:2">
       <c r="A665" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B665" s="2">
         <v>16</v>
@@ -9057,7 +9063,7 @@
     </row>
     <row r="666" spans="1:2">
       <c r="A666" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B666" s="2">
         <v>16</v>
@@ -9065,7 +9071,7 @@
     </row>
     <row r="667" spans="1:2">
       <c r="A667" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B667" s="2">
         <v>16</v>
@@ -9073,7 +9079,7 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B668" s="2">
         <v>16</v>
@@ -9081,7 +9087,7 @@
     </row>
     <row r="669" spans="1:2">
       <c r="A669" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B669" s="2">
         <v>16</v>
@@ -9089,7 +9095,7 @@
     </row>
     <row r="670" spans="1:2">
       <c r="A670" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B670" s="2">
         <v>16</v>
@@ -9097,7 +9103,7 @@
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B671" s="2">
         <v>16</v>
@@ -9105,7 +9111,7 @@
     </row>
     <row r="672" spans="1:2">
       <c r="A672" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B672" s="2">
         <v>16</v>
@@ -9113,7 +9119,7 @@
     </row>
     <row r="673" spans="1:2">
       <c r="A673" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B673" s="2">
         <v>16</v>
@@ -9121,7 +9127,7 @@
     </row>
     <row r="674" spans="1:2">
       <c r="A674" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B674" s="2">
         <v>16</v>
@@ -9129,7 +9135,7 @@
     </row>
     <row r="675" spans="1:2">
       <c r="A675" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B675" s="2">
         <v>16</v>
@@ -9137,7 +9143,7 @@
     </row>
     <row r="676" spans="1:2">
       <c r="A676" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B676" s="2">
         <v>16</v>
@@ -9145,7 +9151,7 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B677" s="2">
         <v>16</v>
@@ -9153,7 +9159,7 @@
     </row>
     <row r="678" spans="1:2">
       <c r="A678" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B678" s="2">
         <v>16</v>
@@ -9161,7 +9167,7 @@
     </row>
     <row r="679" spans="1:2">
       <c r="A679" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B679" s="2">
         <v>16</v>
@@ -9169,7 +9175,7 @@
     </row>
     <row r="680" spans="1:2">
       <c r="A680" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B680" s="2">
         <v>16</v>
@@ -9177,7 +9183,7 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B681" s="2">
         <v>16</v>
@@ -9185,7 +9191,7 @@
     </row>
     <row r="682" spans="1:2">
       <c r="A682" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B682" s="2">
         <v>16</v>
@@ -9193,7 +9199,7 @@
     </row>
     <row r="683" spans="1:2">
       <c r="A683" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B683" s="2">
         <v>16</v>
@@ -9201,7 +9207,7 @@
     </row>
     <row r="684" spans="1:2">
       <c r="A684" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B684" s="2">
         <v>16</v>
@@ -9209,7 +9215,7 @@
     </row>
     <row r="685" spans="1:2">
       <c r="A685" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B685" s="2">
         <v>16</v>
@@ -9217,7 +9223,7 @@
     </row>
     <row r="686" spans="1:2">
       <c r="A686" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B686" s="2">
         <v>16</v>
@@ -9225,7 +9231,7 @@
     </row>
     <row r="687" spans="1:2">
       <c r="A687" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B687" s="2">
         <v>16</v>
@@ -9233,7 +9239,7 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B688" s="2">
         <v>16</v>
@@ -9241,7 +9247,7 @@
     </row>
     <row r="689" spans="1:2">
       <c r="A689" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B689" s="2">
         <v>16</v>
@@ -9249,7 +9255,7 @@
     </row>
     <row r="690" spans="1:2">
       <c r="A690" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B690" s="2">
         <v>16</v>
@@ -9257,7 +9263,7 @@
     </row>
     <row r="691" spans="1:2">
       <c r="A691" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B691" s="2">
         <v>16</v>
@@ -9265,7 +9271,7 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B692" s="2">
         <v>16</v>
@@ -9273,7 +9279,7 @@
     </row>
     <row r="693" spans="1:2">
       <c r="A693" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B693" s="2">
         <v>16</v>
@@ -9281,7 +9287,7 @@
     </row>
     <row r="694" spans="1:2">
       <c r="A694" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B694" s="2">
         <v>16</v>
@@ -9289,7 +9295,7 @@
     </row>
     <row r="695" spans="1:2">
       <c r="A695" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B695" s="2">
         <v>16</v>
@@ -9297,7 +9303,7 @@
     </row>
     <row r="696" spans="1:2">
       <c r="A696" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B696" s="2">
         <v>16</v>
@@ -9305,7 +9311,7 @@
     </row>
     <row r="697" spans="1:2">
       <c r="A697" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B697" s="2">
         <v>16</v>
@@ -9313,7 +9319,7 @@
     </row>
     <row r="698" spans="1:2">
       <c r="A698" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B698" s="2">
         <v>16</v>
@@ -9321,7 +9327,7 @@
     </row>
     <row r="699" spans="1:2">
       <c r="A699" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B699" s="2">
         <v>16</v>
@@ -9329,7 +9335,7 @@
     </row>
     <row r="700" spans="1:2">
       <c r="A700" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B700" s="2">
         <v>16</v>
@@ -9337,7 +9343,7 @@
     </row>
     <row r="701" spans="1:2">
       <c r="A701" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B701" s="2">
         <v>16</v>
@@ -9345,7 +9351,7 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B702" s="2">
         <v>16</v>
@@ -9353,7 +9359,7 @@
     </row>
     <row r="703" spans="1:2">
       <c r="A703" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B703" s="2">
         <v>16</v>
@@ -9361,7 +9367,7 @@
     </row>
     <row r="704" spans="1:2">
       <c r="A704" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B704" s="2">
         <v>16</v>
@@ -9369,7 +9375,7 @@
     </row>
     <row r="705" spans="1:2">
       <c r="A705" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B705" s="2">
         <v>16</v>
@@ -9377,7 +9383,7 @@
     </row>
     <row r="706" spans="1:2">
       <c r="A706" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B706" s="2">
         <v>16</v>
@@ -9385,7 +9391,7 @@
     </row>
     <row r="707" spans="1:2">
       <c r="A707" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B707" s="2">
         <v>16</v>
@@ -9393,7 +9399,7 @@
     </row>
     <row r="708" spans="1:2">
       <c r="A708" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B708" s="2">
         <v>16</v>
@@ -9401,7 +9407,7 @@
     </row>
     <row r="709" spans="1:2">
       <c r="A709" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B709" s="2">
         <v>16</v>
@@ -9409,7 +9415,7 @@
     </row>
     <row r="710" spans="1:2">
       <c r="A710" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B710" s="2">
         <v>16</v>
@@ -9417,7 +9423,7 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B711" s="2">
         <v>16</v>
@@ -9425,7 +9431,7 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B712" s="2">
         <v>16</v>
@@ -9433,7 +9439,7 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B713" s="2">
         <v>16</v>
@@ -9441,7 +9447,7 @@
     </row>
     <row r="714" spans="1:2">
       <c r="A714" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B714" s="2">
         <v>16</v>
@@ -9449,7 +9455,7 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B715" s="2">
         <v>16</v>
@@ -9457,7 +9463,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B716" s="2">
         <v>16</v>
@@ -9465,7 +9471,7 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B717" s="2">
         <v>16</v>
@@ -9473,7 +9479,7 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B718" s="2">
         <v>16</v>
@@ -9481,7 +9487,7 @@
     </row>
     <row r="719" spans="1:2">
       <c r="A719" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B719" s="2">
         <v>16</v>
@@ -9489,7 +9495,7 @@
     </row>
     <row r="720" spans="1:2">
       <c r="A720" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B720" s="2">
         <v>16</v>
@@ -9497,7 +9503,7 @@
     </row>
     <row r="721" spans="1:2">
       <c r="A721" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B721" s="2">
         <v>16</v>
@@ -9505,7 +9511,7 @@
     </row>
     <row r="722" spans="1:2">
       <c r="A722" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B722" s="2">
         <v>16</v>
@@ -9513,7 +9519,7 @@
     </row>
     <row r="723" spans="1:2">
       <c r="A723" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B723" s="2">
         <v>16</v>
@@ -9521,7 +9527,7 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B724" s="2">
         <v>16</v>
@@ -9529,7 +9535,7 @@
     </row>
     <row r="725" spans="1:2">
       <c r="A725" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B725" s="2">
         <v>16</v>
@@ -9537,7 +9543,7 @@
     </row>
     <row r="726" spans="1:2">
       <c r="A726" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B726" s="2">
         <v>16</v>
@@ -9545,7 +9551,7 @@
     </row>
     <row r="727" spans="1:2">
       <c r="A727" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B727" s="2">
         <v>16</v>
@@ -9553,7 +9559,7 @@
     </row>
     <row r="728" spans="1:2">
       <c r="A728" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B728" s="2">
         <v>16</v>
@@ -9561,7 +9567,7 @@
     </row>
     <row r="729" spans="1:2">
       <c r="A729" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B729" s="2">
         <v>16</v>
@@ -9569,7 +9575,7 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B730" s="2">
         <v>16</v>
@@ -9577,7 +9583,7 @@
     </row>
     <row r="731" spans="1:2">
       <c r="A731" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B731" s="2">
         <v>16</v>
@@ -9585,7 +9591,7 @@
     </row>
     <row r="732" spans="1:2">
       <c r="A732" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B732" s="2">
         <v>16</v>
@@ -9593,7 +9599,7 @@
     </row>
     <row r="733" spans="1:2">
       <c r="A733" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B733" s="2">
         <v>16</v>
@@ -9601,7 +9607,7 @@
     </row>
     <row r="734" spans="1:2">
       <c r="A734" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B734" s="2">
         <v>16</v>
@@ -9609,7 +9615,7 @@
     </row>
     <row r="735" spans="1:2">
       <c r="A735" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B735" s="2">
         <v>16</v>
@@ -9617,7 +9623,7 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B736" s="2">
         <v>16</v>
@@ -9625,7 +9631,7 @@
     </row>
     <row r="737" spans="1:2">
       <c r="A737" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B737" s="2">
         <v>16</v>
@@ -9633,7 +9639,7 @@
     </row>
     <row r="738" spans="1:2">
       <c r="A738" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B738" s="2">
         <v>16</v>
@@ -9641,7 +9647,7 @@
     </row>
     <row r="739" spans="1:2">
       <c r="A739" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B739" s="2">
         <v>16</v>
@@ -9649,7 +9655,7 @@
     </row>
     <row r="740" spans="1:2">
       <c r="A740" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B740" s="2">
         <v>16</v>
@@ -9657,7 +9663,7 @@
     </row>
     <row r="741" spans="1:2">
       <c r="A741" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B741" s="2">
         <v>16</v>
@@ -9665,7 +9671,7 @@
     </row>
     <row r="742" spans="1:2">
       <c r="A742" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B742" s="2">
         <v>16</v>
@@ -9673,7 +9679,7 @@
     </row>
     <row r="743" spans="1:2">
       <c r="A743" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B743" s="2">
         <v>16</v>
@@ -9681,7 +9687,7 @@
     </row>
     <row r="744" spans="1:2">
       <c r="A744" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B744" s="2">
         <v>16</v>
@@ -9689,7 +9695,7 @@
     </row>
     <row r="745" spans="1:2">
       <c r="A745" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B745" s="2">
         <v>16</v>
@@ -9697,7 +9703,7 @@
     </row>
     <row r="746" spans="1:2">
       <c r="A746" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B746" s="2">
         <v>16</v>
@@ -9705,7 +9711,7 @@
     </row>
     <row r="747" spans="1:2">
       <c r="A747" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B747" s="2">
         <v>16</v>
@@ -9713,7 +9719,7 @@
     </row>
     <row r="748" spans="1:2">
       <c r="A748" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B748" s="2">
         <v>16</v>
@@ -9721,7 +9727,7 @@
     </row>
     <row r="749" spans="1:2">
       <c r="A749" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B749" s="2">
         <v>16</v>
@@ -9729,7 +9735,7 @@
     </row>
     <row r="750" spans="1:2">
       <c r="A750" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B750" s="2">
         <v>16</v>
@@ -9737,7 +9743,7 @@
     </row>
     <row r="751" spans="1:2">
       <c r="A751" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B751" s="2">
         <v>16</v>
@@ -9745,7 +9751,7 @@
     </row>
     <row r="752" spans="1:2">
       <c r="A752" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B752" s="2">
         <v>16</v>
@@ -9753,7 +9759,7 @@
     </row>
     <row r="753" spans="1:2">
       <c r="A753" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B753" s="2">
         <v>16</v>
@@ -9761,7 +9767,7 @@
     </row>
     <row r="754" spans="1:2">
       <c r="A754" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B754" s="2">
         <v>16</v>
@@ -9769,7 +9775,7 @@
     </row>
     <row r="755" spans="1:2">
       <c r="A755" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B755" s="2">
         <v>16</v>
@@ -9777,7 +9783,7 @@
     </row>
     <row r="756" spans="1:2">
       <c r="A756" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B756" s="2">
         <v>16</v>
@@ -9785,7 +9791,7 @@
     </row>
     <row r="757" spans="1:2">
       <c r="A757" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B757" s="2">
         <v>16</v>
@@ -9793,7 +9799,7 @@
     </row>
     <row r="758" spans="1:2">
       <c r="A758" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B758" s="2">
         <v>16</v>
@@ -9801,7 +9807,7 @@
     </row>
     <row r="759" spans="1:2">
       <c r="A759" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B759" s="2">
         <v>16</v>
@@ -9809,7 +9815,7 @@
     </row>
     <row r="760" spans="1:2">
       <c r="A760" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B760" s="2">
         <v>16</v>
@@ -9817,7 +9823,7 @@
     </row>
     <row r="761" spans="1:2">
       <c r="A761" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B761" s="2">
         <v>16</v>
@@ -9825,7 +9831,7 @@
     </row>
     <row r="762" spans="1:2">
       <c r="A762" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B762" s="2">
         <v>16</v>
@@ -9833,7 +9839,7 @@
     </row>
     <row r="763" spans="1:2">
       <c r="A763" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B763" s="2">
         <v>16</v>
@@ -9841,7 +9847,7 @@
     </row>
     <row r="764" spans="1:2">
       <c r="A764" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B764" s="2">
         <v>16</v>
@@ -9849,7 +9855,7 @@
     </row>
     <row r="765" spans="1:2">
       <c r="A765" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B765" s="2">
         <v>16</v>
@@ -9857,7 +9863,7 @@
     </row>
     <row r="766" spans="1:2">
       <c r="A766" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B766" s="2">
         <v>17</v>
@@ -9865,7 +9871,7 @@
     </row>
     <row r="767" spans="1:2">
       <c r="A767" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B767" s="2">
         <v>17</v>
@@ -9873,7 +9879,7 @@
     </row>
     <row r="768" spans="1:2">
       <c r="A768" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B768" s="2">
         <v>17</v>
@@ -9881,7 +9887,7 @@
     </row>
     <row r="769" spans="1:2">
       <c r="A769" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B769" s="2">
         <v>17</v>
@@ -9889,7 +9895,7 @@
     </row>
     <row r="770" spans="1:2">
       <c r="A770" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B770" s="2">
         <v>17</v>
@@ -9897,7 +9903,7 @@
     </row>
     <row r="771" spans="1:2">
       <c r="A771" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B771" s="2">
         <v>17</v>
@@ -9905,7 +9911,7 @@
     </row>
     <row r="772" spans="1:2">
       <c r="A772" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B772" s="2">
         <v>17</v>
@@ -9913,7 +9919,7 @@
     </row>
     <row r="773" spans="1:2">
       <c r="A773" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B773" s="2">
         <v>17</v>
@@ -9921,7 +9927,7 @@
     </row>
     <row r="774" spans="1:2">
       <c r="A774" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B774" s="2">
         <v>17</v>
@@ -9929,7 +9935,7 @@
     </row>
     <row r="775" spans="1:2">
       <c r="A775" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B775" s="2">
         <v>17</v>
@@ -9937,7 +9943,7 @@
     </row>
     <row r="776" spans="1:2">
       <c r="A776" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B776" s="2">
         <v>17</v>
@@ -9945,7 +9951,7 @@
     </row>
     <row r="777" spans="1:2">
       <c r="A777" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B777" s="2">
         <v>17</v>
@@ -9953,7 +9959,7 @@
     </row>
     <row r="778" spans="1:2">
       <c r="A778" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B778" s="2">
         <v>17</v>
@@ -9961,7 +9967,7 @@
     </row>
     <row r="779" spans="1:2">
       <c r="A779" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B779" s="2">
         <v>17</v>
@@ -9969,7 +9975,7 @@
     </row>
     <row r="780" spans="1:2">
       <c r="A780" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B780" s="2">
         <v>17</v>
@@ -9977,7 +9983,7 @@
     </row>
     <row r="781" spans="1:2">
       <c r="A781" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B781" s="2">
         <v>17</v>
@@ -9985,7 +9991,7 @@
     </row>
     <row r="782" spans="1:2">
       <c r="A782" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B782" s="2">
         <v>17</v>
@@ -9993,7 +9999,7 @@
     </row>
     <row r="783" spans="1:2">
       <c r="A783" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B783" s="2">
         <v>17</v>
@@ -10001,7 +10007,7 @@
     </row>
     <row r="784" spans="1:2">
       <c r="A784" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B784" s="2">
         <v>17</v>
@@ -10009,7 +10015,7 @@
     </row>
     <row r="785" spans="1:2">
       <c r="A785" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B785" s="2">
         <v>17</v>
@@ -10017,7 +10023,7 @@
     </row>
     <row r="786" spans="1:2">
       <c r="A786" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B786" s="2">
         <v>17</v>
@@ -10025,7 +10031,7 @@
     </row>
     <row r="787" spans="1:2">
       <c r="A787" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B787" s="2">
         <v>17</v>
@@ -10033,7 +10039,7 @@
     </row>
     <row r="788" spans="1:2">
       <c r="A788" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B788" s="2">
         <v>17</v>
@@ -10041,7 +10047,7 @@
     </row>
     <row r="789" spans="1:2">
       <c r="A789" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B789" s="2">
         <v>17</v>
@@ -10049,7 +10055,7 @@
     </row>
     <row r="790" spans="1:2">
       <c r="A790" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B790" s="2">
         <v>17</v>
@@ -10057,7 +10063,7 @@
     </row>
     <row r="791" spans="1:2">
       <c r="A791" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B791" s="2">
         <v>17</v>
@@ -10065,7 +10071,7 @@
     </row>
     <row r="792" spans="1:2">
       <c r="A792" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B792" s="2">
         <v>17</v>
@@ -10073,7 +10079,7 @@
     </row>
     <row r="793" spans="1:2">
       <c r="A793" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B793" s="2">
         <v>17</v>
@@ -10081,7 +10087,7 @@
     </row>
     <row r="794" spans="1:2">
       <c r="A794" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B794" s="2">
         <v>17</v>
@@ -10089,7 +10095,7 @@
     </row>
     <row r="795" spans="1:2">
       <c r="A795" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B795" s="2">
         <v>17</v>
@@ -10097,7 +10103,7 @@
     </row>
     <row r="796" spans="1:2">
       <c r="A796" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B796" s="2">
         <v>17</v>
@@ -10105,7 +10111,7 @@
     </row>
     <row r="797" spans="1:2">
       <c r="A797" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B797" s="2">
         <v>17</v>
@@ -10113,7 +10119,7 @@
     </row>
     <row r="798" spans="1:2">
       <c r="A798" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B798" s="2">
         <v>17</v>
@@ -10121,7 +10127,7 @@
     </row>
     <row r="799" spans="1:2">
       <c r="A799" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B799" s="2">
         <v>17</v>
@@ -10129,7 +10135,7 @@
     </row>
     <row r="800" spans="1:2">
       <c r="A800" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B800" s="2">
         <v>17</v>
@@ -10137,7 +10143,7 @@
     </row>
     <row r="801" spans="1:2">
       <c r="A801" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B801" s="2">
         <v>17</v>
@@ -10145,7 +10151,7 @@
     </row>
     <row r="802" spans="1:2">
       <c r="A802" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B802" s="2">
         <v>17</v>
@@ -10153,7 +10159,7 @@
     </row>
     <row r="803" spans="1:2">
       <c r="A803" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B803" s="2">
         <v>17</v>
@@ -10161,7 +10167,7 @@
     </row>
     <row r="804" spans="1:2">
       <c r="A804" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B804" s="2">
         <v>17</v>
@@ -10169,7 +10175,7 @@
     </row>
     <row r="805" spans="1:2">
       <c r="A805" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B805" s="2">
         <v>17</v>
@@ -10177,7 +10183,7 @@
     </row>
     <row r="806" spans="1:2">
       <c r="A806" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B806" s="2">
         <v>17</v>
@@ -10185,7 +10191,7 @@
     </row>
     <row r="807" spans="1:2">
       <c r="A807" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B807" s="2">
         <v>17</v>
@@ -10193,7 +10199,7 @@
     </row>
     <row r="808" spans="1:2">
       <c r="A808" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B808" s="2">
         <v>17</v>
@@ -10201,7 +10207,7 @@
     </row>
     <row r="809" spans="1:2">
       <c r="A809" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B809" s="2">
         <v>17</v>
@@ -10209,7 +10215,7 @@
     </row>
     <row r="810" spans="1:2">
       <c r="A810" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B810" s="2">
         <v>17</v>
@@ -10217,7 +10223,7 @@
     </row>
     <row r="811" spans="1:2">
       <c r="A811" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B811" s="2">
         <v>17</v>
@@ -10225,7 +10231,7 @@
     </row>
     <row r="812" spans="1:2">
       <c r="A812" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B812" s="2">
         <v>17</v>
@@ -10233,7 +10239,7 @@
     </row>
     <row r="813" spans="1:2">
       <c r="A813" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B813" s="2">
         <v>17</v>
@@ -10241,7 +10247,7 @@
     </row>
     <row r="814" spans="1:2">
       <c r="A814" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B814" s="2">
         <v>17</v>
@@ -10249,7 +10255,7 @@
     </row>
     <row r="815" spans="1:2">
       <c r="A815" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B815" s="2">
         <v>17</v>
@@ -10257,7 +10263,7 @@
     </row>
     <row r="816" spans="1:2">
       <c r="A816" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B816" s="2">
         <v>17</v>
@@ -10265,7 +10271,7 @@
     </row>
     <row r="817" spans="1:2">
       <c r="A817" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B817" s="2">
         <v>17</v>
@@ -10273,7 +10279,7 @@
     </row>
     <row r="818" spans="1:2">
       <c r="A818" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B818" s="2">
         <v>17</v>
@@ -10281,7 +10287,7 @@
     </row>
     <row r="819" spans="1:2">
       <c r="A819" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B819" s="2">
         <v>17</v>
@@ -10289,7 +10295,7 @@
     </row>
     <row r="820" spans="1:2">
       <c r="A820" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B820" s="2">
         <v>17</v>
@@ -10297,7 +10303,7 @@
     </row>
     <row r="821" spans="1:2">
       <c r="A821" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B821" s="2">
         <v>17</v>
@@ -10305,7 +10311,7 @@
     </row>
     <row r="822" spans="1:2">
       <c r="A822" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B822" s="2">
         <v>17</v>
@@ -10313,7 +10319,7 @@
     </row>
     <row r="823" spans="1:2">
       <c r="A823" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B823" s="2">
         <v>17</v>
@@ -10321,7 +10327,7 @@
     </row>
     <row r="824" spans="1:2">
       <c r="A824" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B824" s="2">
         <v>17</v>
@@ -10329,7 +10335,7 @@
     </row>
     <row r="825" spans="1:2">
       <c r="A825" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B825" s="2">
         <v>17</v>
@@ -10337,7 +10343,7 @@
     </row>
     <row r="826" spans="1:2">
       <c r="A826" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B826" s="2">
         <v>17</v>
@@ -10345,7 +10351,7 @@
     </row>
     <row r="827" spans="1:2">
       <c r="A827" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B827" s="2">
         <v>17</v>
@@ -10353,7 +10359,7 @@
     </row>
     <row r="828" spans="1:2">
       <c r="A828" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B828" s="2">
         <v>17</v>
@@ -10361,7 +10367,7 @@
     </row>
     <row r="829" spans="1:2">
       <c r="A829" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B829" s="2">
         <v>17</v>
@@ -10369,7 +10375,7 @@
     </row>
     <row r="830" spans="1:2">
       <c r="A830" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B830" s="2">
         <v>17</v>
@@ -10377,7 +10383,7 @@
     </row>
     <row r="831" spans="1:2">
       <c r="A831" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B831" s="2">
         <v>17</v>
@@ -10385,7 +10391,7 @@
     </row>
     <row r="832" spans="1:2">
       <c r="A832" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B832" s="2">
         <v>17</v>
@@ -10393,7 +10399,7 @@
     </row>
     <row r="833" spans="1:2">
       <c r="A833" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B833" s="2">
         <v>17</v>
@@ -10401,7 +10407,7 @@
     </row>
     <row r="834" spans="1:2">
       <c r="A834" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B834" s="2">
         <v>17</v>
@@ -10409,7 +10415,7 @@
     </row>
     <row r="835" spans="1:2">
       <c r="A835" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B835" s="2">
         <v>17</v>
@@ -10417,7 +10423,7 @@
     </row>
     <row r="836" spans="1:2">
       <c r="A836" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B836" s="2">
         <v>17</v>
@@ -10425,7 +10431,7 @@
     </row>
     <row r="837" spans="1:2">
       <c r="A837" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B837" s="2">
         <v>17</v>
@@ -10433,7 +10439,7 @@
     </row>
     <row r="838" spans="1:2">
       <c r="A838" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B838" s="2">
         <v>17</v>
@@ -10441,7 +10447,7 @@
     </row>
     <row r="839" spans="1:2">
       <c r="A839" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B839" s="2">
         <v>17</v>
